--- a/Excel and CSV Datenbank/Veranstaltung.xlsx
+++ b/Excel and CSV Datenbank/Veranstaltung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kien\Desktop\Seminar\Datenbank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kien\Desktop\Seminar\Excel and CSV Datenbank\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="32">
   <si>
     <t>Veranstaltungsart</t>
   </si>
@@ -83,30 +83,6 @@
     <t>VT13</t>
   </si>
   <si>
-    <t>VT14</t>
-  </si>
-  <si>
-    <t>VT15</t>
-  </si>
-  <si>
-    <t>VT16</t>
-  </si>
-  <si>
-    <t>VT17</t>
-  </si>
-  <si>
-    <t>VT18</t>
-  </si>
-  <si>
-    <t>VT19</t>
-  </si>
-  <si>
-    <t>VT20</t>
-  </si>
-  <si>
-    <t>VT21</t>
-  </si>
-  <si>
     <t>P01</t>
   </si>
   <si>
@@ -116,27 +92,6 @@
     <t>P03</t>
   </si>
   <si>
-    <t>P04</t>
-  </si>
-  <si>
-    <t>P05</t>
-  </si>
-  <si>
-    <t>P06</t>
-  </si>
-  <si>
-    <t>P07</t>
-  </si>
-  <si>
-    <t>P08</t>
-  </si>
-  <si>
-    <t>P09</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
     <t>FB01</t>
   </si>
   <si>
@@ -165,12 +120,6 @@
   </si>
   <si>
     <t>FB15</t>
-  </si>
-  <si>
-    <t>FB17</t>
-  </si>
-  <si>
-    <t>FB19</t>
   </si>
 </sst>
 </file>
@@ -226,8 +175,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D22" totalsRowShown="0">
-  <autoFilter ref="A1:D22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0">
+  <autoFilter ref="A1:D14"/>
   <tableColumns count="4">
     <tableColumn id="1" name="VTNr"/>
     <tableColumn id="2" name="Veranstaltungsart"/>
@@ -501,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -536,10 +485,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -550,10 +499,10 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -564,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -578,10 +527,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -592,10 +541,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -606,10 +555,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -620,10 +569,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,10 +583,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -648,10 +597,10 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -662,10 +611,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -676,10 +625,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -690,10 +639,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -704,122 +653,10 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
